--- a/Data Files/Add New User Data.xlsx
+++ b/Data Files/Add New User Data.xlsx
@@ -33,9 +33,6 @@
     <t>jobtitle</t>
   </si>
   <si>
-    <t>Chalo</t>
-  </si>
-  <si>
     <t>Chweya</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Trial1</t>
+  </si>
+  <si>
+    <t>Chalo7</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,51 +461,51 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -535,7 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Data Files/Add New User Data.xlsx
+++ b/Data Files/Add New User Data.xlsx
@@ -66,16 +66,16 @@
     <t>TestProf</t>
   </si>
   <si>
-    <t>TestProfile1</t>
-  </si>
-  <si>
     <t>deptname</t>
   </si>
   <si>
-    <t>Trial1</t>
-  </si>
-  <si>
     <t>Chalo7</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>TestProfile</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +473,12 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>

--- a/Data Files/Add New User Data.xlsx
+++ b/Data Files/Add New User Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>fname</t>
   </si>
@@ -72,10 +72,16 @@
     <t>Chalo7</t>
   </si>
   <si>
+    <t>Trial1</t>
+  </si>
+  <si>
+    <t>SearchDept</t>
+  </si>
+  <si>
     <t>Trial</t>
   </si>
   <si>
-    <t>TestProfile</t>
+    <t>TestProfile1</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,9 +448,10 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,10 +480,13 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -499,16 +509,19 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
